--- a/va_facility_data_2025-02-20/Oakhurst VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oakhurst%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oakhurst VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oakhurst%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2913954b08444d90bc8a998c95066f8a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9a9b84cb7af44e569a505ff16c806acc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb0f369b38e184f088d818a04eee794ed"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbe49ce60852d42d381fdbbf64da57e54"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R538e57a8cdc34066bb0b5a97cd002fa5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rac40a4b830ea4e8fbbffe471f6ee7938"/>
   </x:sheets>
 </x:workbook>
 </file>
